--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value823.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value823.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.030845099388796</v>
+        <v>1.487815260887146</v>
       </c>
       <c r="B1">
-        <v>3.691380133638717</v>
+        <v>3.661987066268921</v>
       </c>
       <c r="C1">
-        <v>2.157434931503293</v>
+        <v>2.20524263381958</v>
       </c>
       <c r="D1">
-        <v>1.603753014555219</v>
+        <v>1.274955868721008</v>
       </c>
       <c r="E1">
-        <v>1.409324517261472</v>
+        <v>0.7593414187431335</v>
       </c>
     </row>
   </sheetData>
